--- a/globalNodeState.xlsx
+++ b/globalNodeState.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\GitHub\sdn-with-aco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grad-cb4101\Desktop\sdn-with-aco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0B3B36-E4BC-438F-9085-169FB486C45A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AEEE63-E824-49F1-89B9-D9A5FC59F915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6252" yWindow="1524" windowWidth="11076" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23520" yWindow="3585" windowWidth="21600" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -335,12 +335,12 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -348,7 +348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -356,7 +356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -364,7 +364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -372,7 +372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -380,7 +380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -388,7 +388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -396,7 +396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -404,7 +404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -412,7 +412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
